--- a/data/data_excel_to_parquet/provinces.xlsx
+++ b/data/data_excel_to_parquet/provinces.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\mbarek\script_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\mbarek\script_python\projet_streamlit\data\data_excel_to_parquet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA2063-F2AD-4A76-89E4-B751C6E3B821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC708081-49C7-4EB9-893C-E28B3B833E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{110C7A43-BC29-44D3-BB9C-E2311746B9DE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$B$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>AGADIR IDA OUTANANE</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>nb_grappe</t>
+  </si>
+  <si>
+    <t>M DIQ FNIDQ</t>
+  </si>
+  <si>
+    <t>MEDIOUNA</t>
   </si>
 </sst>
 </file>
@@ -556,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BBDC9-FCD4-4F68-834D-26354A604E9C}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -620,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -628,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -644,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -652,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -660,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -732,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +762,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,60 +810,60 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>170</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>354</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>56</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>112</v>
@@ -865,95 +871,95 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>168</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>282</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>224</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>113</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>283</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>113</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>112</v>
@@ -961,73 +967,89 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>225</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>169</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>336</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>280</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55">
-        <v>112</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>401</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>169</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>240</v>
       </c>
     </row>
